--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_2_Recording_accounting_transactions/documents/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50892DCB-7CE1-8546-A395-3FE6A78324ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14AA1B3-A09B-4411-B19B-7B90447E27CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14980" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25440" windowHeight="14985" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -45,27 +45,6 @@
     <t>Credit</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Common Stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Fees Earned</t>
-  </si>
-  <si>
-    <t>Rent Expense</t>
-  </si>
-  <si>
-    <t>Fees Earned</t>
-  </si>
-  <si>
-    <t>Wages Expense</t>
-  </si>
-  <si>
     <t>On 6/1, Core Fitness received cash from an investor</t>
   </si>
   <si>
@@ -557,6 +536,24 @@
       </rPr>
       <t xml:space="preserve"> (debit)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Common Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rent Expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Fees Earned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wages Expense</t>
   </si>
 </sst>
 </file>
@@ -624,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,29 +630,77 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDFF7FD"/>
+        <fgColor theme="0"/>
         <bgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFFAFD"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFFAFD"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0F3FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8DB4E2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8DB4E2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8DB4E2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8DB4E2"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -665,37 +710,63 @@
       <right style="thin">
         <color rgb="FFCAE8FF"/>
       </right>
-      <top style="thin">
-        <color rgb="FFCAE8FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCAE8FF"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1026,219 +1097,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="B1:Q18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="1.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:17" ht="22.5" customHeight="1"/>
+    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="8" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="2:17" ht="10.5" customHeight="1">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B4" s="14">
+        <v>42887</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="11">
+        <v>8000</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="11"/>
+      <c r="J4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10">
+        <v>8000</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="J6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B7" s="16">
+        <v>42887</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="J7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="J9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B10" s="16">
+        <v>42891</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="10">
+        <v>800</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10"/>
+      <c r="J10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
+        <v>800</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="J12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="2">
-        <v>42887</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4">
-        <v>8000</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="F2" s="9" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B13" s="16">
+        <v>42894</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="10">
+        <v>500</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="10"/>
+      <c r="J13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10">
+        <v>500</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="J15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B16" s="16">
+        <v>42896</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="10">
+        <v>700</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="10"/>
+      <c r="J16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="2:16" ht="22.5" customHeight="1">
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="10">
+        <v>600</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4">
-        <v>8000</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="F4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="2">
-        <v>42887</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="F7" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="A8" s="2">
-        <v>43621</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>800</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="F8" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4">
-        <v>800</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" s="2">
-        <v>43624</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4">
-        <v>500</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="F11" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4">
-        <v>500</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="2">
-        <v>43626</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4">
-        <v>700</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="F14" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4">
-        <v>700</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="2:16" ht="22.5" customHeight="1">
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="12"/>
+      <c r="J18" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="E3:E18"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J17:P17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
